--- a/documentos/inventario-pruebas-exploratorias.xlsx
+++ b/documentos/inventario-pruebas-exploratorias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Documents\ESTUDIOS\MISO\Pruebas Automatizadas\Proyecto de curso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0DACD5-7E9E-49BA-89F4-AC092A2852DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6685E1C-6F04-4004-89A1-60D434997058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>Funcionalidad</t>
   </si>
@@ -147,6 +147,93 @@
     <t>Navegador: Google chrome Versión 129.0.6668.90 (Build oficial) (64 bits)
 Configuracion de Maquina: SO Windows 10 Pro Version 22H2; RAM 6 GB; Procesador Intel(R) Core(TM) i3-5005U CPU @ 2.00GHz ; Resolucion 1366x768 pixels
 Viewport Inicial: 1366x768</t>
+  </si>
+  <si>
+    <t>PE01</t>
+  </si>
+  <si>
+    <t>PE02</t>
+  </si>
+  <si>
+    <t>PE03</t>
+  </si>
+  <si>
+    <t>PE04</t>
+  </si>
+  <si>
+    <t>PE05</t>
+  </si>
+  <si>
+    <t>PE06</t>
+  </si>
+  <si>
+    <t>PE07</t>
+  </si>
+  <si>
+    <t>PE08</t>
+  </si>
+  <si>
+    <t>PE09</t>
+  </si>
+  <si>
+    <t>PE10</t>
+  </si>
+  <si>
+    <t>PE11</t>
+  </si>
+  <si>
+    <t>PE12</t>
+  </si>
+  <si>
+    <t>PE13</t>
+  </si>
+  <si>
+    <t>PE14</t>
+  </si>
+  <si>
+    <t>PE15</t>
+  </si>
+  <si>
+    <t>PE16</t>
+  </si>
+  <si>
+    <t>PE17</t>
+  </si>
+  <si>
+    <t>PE18</t>
+  </si>
+  <si>
+    <t>PE19</t>
+  </si>
+  <si>
+    <t>PE20</t>
+  </si>
+  <si>
+    <t>Raul Ramos</t>
+  </si>
+  <si>
+    <t>Calletana Lopez</t>
+  </si>
+  <si>
+    <t>Iniciar sesion</t>
+  </si>
+  <si>
+    <t>Iniciar sesion con datos correctos</t>
+  </si>
+  <si>
+    <t>Iniciar sesion con datos incorrectos</t>
+  </si>
+  <si>
+    <t>Editar titulo y descripcion</t>
+  </si>
+  <si>
+    <t>Editar titulo con informacion correcta</t>
+  </si>
+  <si>
+    <t>Editar titulo introducionedo html y textos largos</t>
+  </si>
+  <si>
+    <t>RI001</t>
   </si>
 </sst>
 </file>
@@ -294,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -304,17 +391,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -322,11 +412,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,17 +759,17 @@
   <dimension ref="B1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="3" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
     <col min="6" max="6" width="20.75" customWidth="1"/>
     <col min="7" max="7" width="26.625" customWidth="1"/>
-    <col min="8" max="8" width="25.375" customWidth="1"/>
+    <col min="8" max="8" width="36.25" customWidth="1"/>
     <col min="9" max="9" width="30.625" customWidth="1"/>
     <col min="10" max="10" width="26.875" customWidth="1"/>
   </cols>
@@ -717,49 +810,49 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="2:10" ht="81.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
@@ -785,7 +878,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -814,227 +907,381 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="J13" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1043,9 +1290,9 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1056,7 +1303,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1067,7 +1314,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1167,17 +1414,17 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/documentos/inventario-pruebas-exploratorias.xlsx
+++ b/documentos/inventario-pruebas-exploratorias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Documents\ESTUDIOS\MISO\Pruebas Automatizadas\Proyecto de curso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6685E1C-6F04-4004-89A1-60D434997058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24847549-1685-48D8-B7B6-EE378C95D237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>Funcionalidad</t>
   </si>
@@ -233,14 +233,47 @@
     <t>Editar titulo introducionedo html y textos largos</t>
   </si>
   <si>
-    <t>RI001</t>
+    <t>https://uniandes-my.sharepoint.com/:v:/g/personal/r_ramosg_uniandes_edu_co/EbDR65m1kOtOjif50MnnYhcBCr2-9jwzdCK8Bd3g17UGcQ?nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=xQX5Ak</t>
+  </si>
+  <si>
+    <t>https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE02-iniciar-sesion.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=Y5mXLI</t>
+  </si>
+  <si>
+    <t>https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE03-editar%20titulo.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=pgEgda</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE04-editar-titulo.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=8gbpVr</t>
+  </si>
+  <si>
+    <t>https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE05-nuevo%20post.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=MVwAbE</t>
+  </si>
+  <si>
+    <t>https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE06-nuevo%20post%20con%20titulo%20largo.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=NfUvad</t>
+  </si>
+  <si>
+    <t>RI02</t>
+  </si>
+  <si>
+    <t>RI01</t>
+  </si>
+  <si>
+    <t>Nuevo post</t>
+  </si>
+  <si>
+    <t>Crear post normalmente</t>
+  </si>
+  <si>
+    <t>Crear post usando titulo largo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -289,6 +322,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -378,10 +419,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,8 +463,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -759,7 +804,7 @@
   <dimension ref="B1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="68" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -929,8 +974,12 @@
       <c r="H10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="14"/>
+      <c r="I10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
@@ -954,8 +1003,12 @@
       <c r="H11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="14"/>
+      <c r="I11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
@@ -979,8 +1032,12 @@
       <c r="H12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="14"/>
+      <c r="I12" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
@@ -1004,9 +1061,11 @@
       <c r="H13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="I13" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="J13" s="14" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1019,12 +1078,24 @@
       <c r="D14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="14"/>
+      <c r="E14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
@@ -1036,12 +1107,24 @@
       <c r="D15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="14"/>
+      <c r="E15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
@@ -1436,10 +1519,18 @@
     <mergeCell ref="B8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I10" r:id="rId1" display="https://uniandes-my.sharepoint.com/:v:/g/personal/r_ramosg_uniandes_edu_co/EbDR65m1kOtOjif50MnnYhcBCr2-9jwzdCK8Bd3g17UGcQ?nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=xQX5Ak" xr:uid="{0A22D539-94D9-4FDA-B783-FBA45802CFAB}"/>
+    <hyperlink ref="I11" r:id="rId2" display="https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE02-iniciar-sesion.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=Y5mXLI" xr:uid="{6722480E-A2F5-4144-ADDE-533780D30C77}"/>
+    <hyperlink ref="I12" r:id="rId3" display="https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE03-editar%20titulo.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=pgEgda" xr:uid="{C4213FFF-EB12-413D-AEAF-51D22D21E3A9}"/>
+    <hyperlink ref="I13" r:id="rId4" display="https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE04-editar-titulo.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=8gbpVr" xr:uid="{14B71355-D4EB-4741-9F3E-69500C04C26C}"/>
+    <hyperlink ref="I14" r:id="rId5" display="https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE05-nuevo%20post.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=MVwAbE" xr:uid="{06BACE3C-A7B2-441F-AF1D-4AE026821990}"/>
+    <hyperlink ref="I15" r:id="rId6" display="https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE06-nuevo%20post%20con%20titulo%20largo.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=NfUvad" xr:uid="{D4A4BC6E-E1D9-4875-A8BE-22DA431B8825}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">

--- a/documentos/inventario-pruebas-exploratorias.xlsx
+++ b/documentos/inventario-pruebas-exploratorias.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Documents\ESTUDIOS\MISO\Pruebas Automatizadas\Proyecto de curso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Documents\ESTUDIOS\MISO\4104 Pruebas Automatizadas\Proyecto de curso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24847549-1685-48D8-B7B6-EE378C95D237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7A4ED2-50BE-4FD0-A37D-FE7A8AA4A918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
   <si>
     <t>Funcionalidad</t>
   </si>
@@ -267,6 +267,57 @@
   </si>
   <si>
     <t>Crear post usando titulo largo</t>
+  </si>
+  <si>
+    <t>Agregar galleria de imágenes al post</t>
+  </si>
+  <si>
+    <t>RI03</t>
+  </si>
+  <si>
+    <t>https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE07-agregar%20galer%C3%ADa%20de%20imagen%20a%20un%20post.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=sY8l7i</t>
+  </si>
+  <si>
+    <t>Agregar imágenes a post</t>
+  </si>
+  <si>
+    <t>Agregar imagen de tipo diferente</t>
+  </si>
+  <si>
+    <t>https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE08-agregar%20imagen%20de%20extension%20equivocada.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=qcmchT</t>
+  </si>
+  <si>
+    <t>RI04</t>
+  </si>
+  <si>
+    <t>Gestionar Autor</t>
+  </si>
+  <si>
+    <t>Invitar autor o crear nuevo autor</t>
+  </si>
+  <si>
+    <t>Modifcar correo de autor</t>
+  </si>
+  <si>
+    <t>https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE09-invitar%20autor.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=UttxKC</t>
+  </si>
+  <si>
+    <t>https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE10-modifcar%20correo%20autor%20actual.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=BFQxPZ</t>
+  </si>
+  <si>
+    <t>RI05</t>
+  </si>
+  <si>
+    <t>Ri06</t>
+  </si>
+  <si>
+    <t>Crear pagina</t>
+  </si>
+  <si>
+    <t>crear una pagina en blanco</t>
+  </si>
+  <si>
+    <t>https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE11-crear%20pagina.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=nKdFjs</t>
   </si>
 </sst>
 </file>
@@ -436,6 +487,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -457,14 +516,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -803,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="68" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="68" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -831,17 +882,17 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -858,46 +909,46 @@
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="2:10" ht="81.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
@@ -911,17 +962,17 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -953,10 +1004,10 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="6">
         <v>45577</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -974,18 +1025,18 @@
       <c r="H10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="6">
         <v>45577</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1003,18 +1054,18 @@
       <c r="H11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="6">
         <v>45577</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1032,18 +1083,18 @@
       <c r="H12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="6">
         <v>45577</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1061,18 +1112,18 @@
       <c r="H13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="6">
         <v>45577</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1090,18 +1141,18 @@
       <c r="H14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="6">
         <v>45577</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1119,103 +1170,163 @@
       <c r="H15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="6">
         <v>45577</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="14"/>
+      <c r="E16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="6">
         <v>45577</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="14"/>
+      <c r="E17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="6">
         <v>45577</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="14"/>
+      <c r="E18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="6">
         <v>45577</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="14"/>
+      <c r="E19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="6">
         <v>45577</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="14"/>
+      <c r="E20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="6">
         <v>45577</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1226,13 +1337,13 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="14"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="6">
         <v>45577</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1243,13 +1354,13 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="14"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="6">
         <v>45577</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1260,13 +1371,13 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="14"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="6">
         <v>45577</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -1277,13 +1388,13 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="14"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="6">
         <v>45577</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -1294,13 +1405,13 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="14"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="6">
         <v>45577</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -1311,13 +1422,13 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="14"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="6">
         <v>45577</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -1328,13 +1439,13 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="14"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="6">
         <v>45577</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1345,13 +1456,13 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="14"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="6">
         <v>45577</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -1362,7 +1473,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="14"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
@@ -1373,7 +1484,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="14"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
@@ -1497,17 +1608,17 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1526,11 +1637,16 @@
     <hyperlink ref="I13" r:id="rId4" display="https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE04-editar-titulo.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=8gbpVr" xr:uid="{14B71355-D4EB-4741-9F3E-69500C04C26C}"/>
     <hyperlink ref="I14" r:id="rId5" display="https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE05-nuevo%20post.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=MVwAbE" xr:uid="{06BACE3C-A7B2-441F-AF1D-4AE026821990}"/>
     <hyperlink ref="I15" r:id="rId6" display="https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE06-nuevo%20post%20con%20titulo%20largo.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=NfUvad" xr:uid="{D4A4BC6E-E1D9-4875-A8BE-22DA431B8825}"/>
+    <hyperlink ref="I16" r:id="rId7" display="https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE07-agregar%20galer%C3%ADa%20de%20imagen%20a%20un%20post.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=sY8l7i" xr:uid="{4F83E7F6-691C-4E7E-AE58-F477340F2EA4}"/>
+    <hyperlink ref="I17" r:id="rId8" display="https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE08-agregar%20imagen%20de%20extension%20equivocada.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=qcmchT" xr:uid="{C983270F-420B-4CC3-8E3E-594474E9A42D}"/>
+    <hyperlink ref="I18" r:id="rId9" display="https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE09-invitar%20autor.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=UttxKC" xr:uid="{16478DC3-4F8C-43DE-923B-AC45CFB86A34}"/>
+    <hyperlink ref="I19" r:id="rId10" display="https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE10-modifcar%20correo%20autor%20actual.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=BFQxPZ" xr:uid="{65F227DB-B6A1-4779-9F73-7336C0753BCB}"/>
+    <hyperlink ref="I20" r:id="rId11" display="https://uniandes-my.sharepoint.com/:v:/r/personal/r_ramosg_uniandes_edu_co/Documents/MISW4103-PAS/evidencias/PE11-crear%20pagina.mp4?csf=1&amp;web=1&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=nKdFjs" xr:uid="{4A668425-B3E2-44D5-8EDD-396EAE034CE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <drawing r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">

--- a/documentos/inventario-pruebas-exploratorias.xlsx
+++ b/documentos/inventario-pruebas-exploratorias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Documents\ESTUDIOS\MISO\4104 Pruebas Automatizadas\Proyecto de curso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7A4ED2-50BE-4FD0-A37D-FE7A8AA4A918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59931D3B-6D42-4EAA-9B5B-38E05BE48B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
